--- a/test_files/slide_lists.xlsx
+++ b/test_files/slide_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave2\Documents\PDX\PATHOverview-main\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB2E48-9542-405D-87CF-6903D3736F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EFBFB-8FB4-4337-B4B8-C9CFE36FDC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13260" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3870" yWindow="-14760" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="slides" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Slide1</t>
   </si>
   <si>
-    <t>.\test_files</t>
-  </si>
-  <si>
     <t>OS-1.ndpi</t>
   </si>
   <si>
@@ -65,18 +62,12 @@
     <t>OS-2.ndpi</t>
   </si>
   <si>
-    <t>Slide1Sub</t>
-  </si>
-  <si>
     <t>(0.872831270292208, 0.2538111302759737)</t>
   </si>
   <si>
     <t>((0.8509156858766236, 0.25746372767857123), 0.42857142857142844, 0.4212662337662339)</t>
   </si>
   <si>
-    <t>Slide2Sub</t>
-  </si>
-  <si>
     <t>(0.7413377637987015, 0.5046228185876621)</t>
   </si>
   <si>
@@ -101,16 +92,25 @@
     <t>Page 1 Title</t>
   </si>
   <si>
-    <t>.\test_files\test_figure_output_1.tiff</t>
-  </si>
-  <si>
     <t>Page 2 Title</t>
   </si>
   <si>
     <t>Sub-views</t>
   </si>
   <si>
-    <t>.\test_files\test_figure_output_2.tiff</t>
+    <t>test_files\test_figure_output_1.tiff</t>
+  </si>
+  <si>
+    <t>test_files\test_figure_output_2.tiff</t>
+  </si>
+  <si>
+    <t>test_files</t>
+  </si>
+  <si>
+    <t>Slide1Crop</t>
+  </si>
+  <si>
+    <t>Slide2Crop</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -553,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -573,17 +573,17 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -605,16 +605,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -652,19 +652,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -689,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/slide_lists.xlsx
+++ b/test_files/slide_lists.xlsx
@@ -1,145 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave2\Documents\PDX\PATHOverview-main\test_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EFBFB-8FB4-4337-B4B8-C9CFE36FDC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3870" yWindow="-14760" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="slides" sheetId="1" r:id="rId1"/>
-    <sheet name="pages" sheetId="2" r:id="rId2"/>
+    <sheet name="slides" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pages" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>rotation</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
-    <t>zoom_point</t>
-  </si>
-  <si>
-    <t>crop</t>
-  </si>
-  <si>
-    <t>Slide1</t>
-  </si>
-  <si>
-    <t>OS-1.ndpi</t>
-  </si>
-  <si>
-    <t>Slide2</t>
-  </si>
-  <si>
-    <t>OS-2.ndpi</t>
-  </si>
-  <si>
-    <t>(0.872831270292208, 0.2538111302759737)</t>
-  </si>
-  <si>
-    <t>((0.8509156858766236, 0.25746372767857123), 0.42857142857142844, 0.4212662337662339)</t>
-  </si>
-  <si>
-    <t>(0.7413377637987015, 0.5046228185876621)</t>
-  </si>
-  <si>
-    <t>((0.7486429586038963, 0.4997526887175323), 0.5064935064935067, 0.5795454545454546)</t>
-  </si>
-  <si>
-    <t>title1</t>
-  </si>
-  <si>
-    <t>title2</t>
-  </si>
-  <si>
-    <t>title3</t>
-  </si>
-  <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>Page 1 Title</t>
-  </si>
-  <si>
-    <t>Page 2 Title</t>
-  </si>
-  <si>
-    <t>Sub-views</t>
-  </si>
-  <si>
-    <t>test_files\test_figure_output_1.tiff</t>
-  </si>
-  <si>
-    <t>test_files\test_figure_output_2.tiff</t>
-  </si>
-  <si>
-    <t>test_files</t>
-  </si>
-  <si>
-    <t>Slide1Crop</t>
-  </si>
-  <si>
-    <t>Slide2Crop</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -162,29 +70,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -484,149 +478,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="5" max="5" width="9.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rotation</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>mirror</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>zoom_point</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>crop</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>panel_size</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>fig_type</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>add_inset</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>inset_size</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>zoom_real_size</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>scale_bar</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>inset_scale_bar</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>sb_label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_files</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OS-1.ndpi</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_files</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OS-2.ndpi</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="F3" t="n">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -635,70 +626,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>title1</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>title2</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>title3</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>footer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>figsize</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>n_x</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>n_y</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Page 0. Generated by PATHOverview.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>test_files\page0.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>